--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_4_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_4_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.024441289831923e-05</v>
+        <v>0.0003982719897474007</v>
       </c>
       <c r="I2" t="n">
-        <v>1.024441289831923e-05</v>
+        <v>0.0003982719897474007</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.95355001078939</v>
+        <v>42.98414391871968</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[25.86954753348668, 72.0375524880921]</t>
+          <t>[17.378484808620854, 68.58980302881851]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9.927213862526152e-05</v>
+        <v>0.001502037087650843</v>
       </c>
       <c r="O2" t="n">
-        <v>9.927213862526152e-05</v>
+        <v>0.001502037087650843</v>
       </c>
       <c r="P2" t="n">
-        <v>1.213868632918579</v>
+        <v>1.86797401024258</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6981317007977319, 1.729605565039427]</t>
+          <t>[1.1761317842268104, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.171097303693692e-05</v>
+        <v>2.112949634813788e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.171097303693692e-05</v>
+        <v>2.112949634813788e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>57.7007653214149</v>
+        <v>61.13419945698831</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.88214835453437, 70.51938228829542]</t>
+          <t>[46.67680783070293, 75.59159108327368]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.022182338772382e-11</v>
+        <v>6.174816213899703e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.022182338772382e-11</v>
+        <v>6.174816213899703e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>19.8151751751755</v>
+        <v>17.57459459459492</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.79923923923953</v>
+        <v>14.82074074074102</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.83111111111147</v>
+        <v>20.32844844844882</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001069440209300332</v>
+        <v>0.000156419883225567</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001069440209300332</v>
+        <v>0.000156419883225567</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.2273497183032</v>
+        <v>37.57249527459734</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.32071652349606, 66.13398291311034]</t>
+          <t>[16.824218244908586, 58.3207723042861]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0008954422682723173</v>
+        <v>0.0006854150987423147</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008954422682723173</v>
+        <v>0.0006854150987423147</v>
       </c>
       <c r="P3" t="n">
-        <v>1.088079137279348</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 1.679289766783734]</t>
+          <t>[0.6603948521059619, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0005730876326632828</v>
+        <v>0.0001359863332710542</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0005730876326632828</v>
+        <v>0.0001359863332710542</v>
       </c>
       <c r="T3" t="n">
-        <v>55.3172540865644</v>
+        <v>50.62503847591687</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.60661173754386, 68.02789643558494]</t>
+          <t>[38.92788254658856, 62.322194405245185]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.724664938114074e-11</v>
+        <v>3.19406723292559e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.724664938114074e-11</v>
+        <v>3.19406723292559e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>20.3068668668672</v>
+        <v>19.92788788788826</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.99591591591621</v>
+        <v>17.47445445445478</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.61781781781819</v>
+        <v>22.38132132132175</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.523308466395591e-05</v>
+        <v>0.01812264687271825</v>
       </c>
       <c r="I4" t="n">
-        <v>2.523308466395591e-05</v>
+        <v>0.01812264687271825</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.92581763346765</v>
+        <v>26.54453315541483</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[22.332095208726827, 71.51954005820848]</t>
+          <t>[2.7471324515652285, 50.34193385926444]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.00037878739854591</v>
+        <v>0.02961774843110376</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00037878739854591</v>
+        <v>0.02961774843110376</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9371317425122712</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.45913165908319353, 1.4151318259413488]</t>
+          <t>[-0.03144737390980801, 2.408868841491273]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0002735309226040705</v>
+        <v>0.05594192536274689</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002735309226040705</v>
+        <v>0.05594192536274689</v>
       </c>
       <c r="T4" t="n">
-        <v>62.17962680762521</v>
+        <v>49.05709082126936</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.326467768081926, 75.0327858471685]</t>
+          <t>[36.17446938537806, 61.93971225716065]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.165734175856414e-12</v>
+        <v>1.047149922328572e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.165734175856414e-12</v>
+        <v>1.047149922328572e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>20.89689689689724</v>
+        <v>20.27837837837876</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.02846846846878</v>
+        <v>15.42158158158187</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.76532532532569</v>
+        <v>25.13517517517565</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.410555471454856e-06</v>
+        <v>7.825228864888345e-08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.410555471454856e-06</v>
+        <v>7.825228864888345e-08</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.56061127505883</v>
+        <v>62.49062592073967</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[26.611278203116214, 72.50994434700145]</t>
+          <t>[37.68070178278542, 87.30055005869393]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>7.728709280296897e-05</v>
+        <v>7.209520287654314e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>7.728709280296897e-05</v>
+        <v>7.209520287654314e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7232895999255788</v>
+        <v>0.8616580451287312</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.27044741562434726, 1.1761317842268104]</t>
+          <t>[0.47171060864711656, 1.251605481610346]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.002402223332436781</v>
+        <v>5.58604139038188e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002402223332436781</v>
+        <v>5.58604139038188e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>60.44397022782486</v>
+        <v>66.93656880092415</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.57861174473402, 72.3093287109157]</t>
+          <t>[54.16942173639957, 79.70371586544873]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.311484337269576e-13</v>
+        <v>9.192646643896296e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.311484337269576e-13</v>
+        <v>9.192646643896296e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>21.73277277277312</v>
+        <v>21.58020020020061</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.96268268268301</v>
+        <v>20.02802802802841</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.50286286286324</v>
+        <v>23.1323723723728</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002708678001068998</v>
+        <v>8.621327084190611e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002708678001068998</v>
+        <v>8.621327084190611e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>35.97722544373274</v>
+        <v>51.39132260500694</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[8.48336888681333, 63.47108200065215]</t>
+          <t>[22.10377857891021, 80.67886663110367]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01148254958290806</v>
+        <v>0.0009597114593944411</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01148254958290806</v>
+        <v>0.0009597114593944411</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8490790955648091</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 1.515763422452733]</t>
+          <t>[0.16981581911296306, 1.2012896833546547]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01371816578378615</v>
+        <v>0.01032121786584717</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01371816578378615</v>
+        <v>0.01032121786584717</v>
       </c>
       <c r="T6" t="n">
-        <v>56.63772963882106</v>
+        <v>64.44339563248705</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.72796398326844, 70.54749529437369]</t>
+          <t>[49.42599112998333, 79.46080013499078]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.760676049400445e-10</v>
+        <v>4.073075210442312e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.760676049400445e-10</v>
+        <v>4.073075210442312e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>21.24108108108143</v>
+        <v>22.2811811811816</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.63511511511542</v>
+        <v>20.22830830830869</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.84704704704743</v>
+        <v>24.33405405405451</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.5600000000004</v>
+        <v>25.01000000000047</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.718293527066319e-05</v>
+        <v>0.0002285987757412178</v>
       </c>
       <c r="I7" t="n">
-        <v>3.718293527066319e-05</v>
+        <v>0.0002285987757412178</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.93346924634606</v>
+        <v>40.58880416474915</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[22.54925998720489, 73.31767850548722]</t>
+          <t>[16.692169772084156, 64.48543855741414]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.000427685059716687</v>
+        <v>0.001337666659656733</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000427685059716687</v>
+        <v>0.001337666659656733</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5094474573388847</v>
+        <v>0.4717106086471166</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.04402632347373281, 1.0629212381515023]</t>
+          <t>[-0.15723686954903737, 1.1006580868432705]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0703165022504364</v>
+        <v>0.1378868762615149</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0703165022504364</v>
+        <v>0.1378868762615149</v>
       </c>
       <c r="T7" t="n">
-        <v>57.66374847381805</v>
+        <v>58.65764498973205</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.343575692095726, 70.98392125554037]</t>
+          <t>[46.05966226721188, 71.25562771225222]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.17144088768373e-11</v>
+        <v>3.738565013122752e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>3.17144088768373e-11</v>
+        <v>3.738565013122752e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>22.56864864864902</v>
+        <v>23.13237237237281</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.40520520520554</v>
+        <v>20.62886886886926</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.7320920920925</v>
+        <v>25.63587587587635</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.24000000000019</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.391163682062935e-05</v>
+        <v>0.0004369418129007707</v>
       </c>
       <c r="I8" t="n">
-        <v>1.391163682062935e-05</v>
+        <v>0.0004369418129007707</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.97074246386855</v>
+        <v>44.98597484602176</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[26.07677754477318, 67.86470738296393]</t>
+          <t>[18.67221184951947, 71.29973784252405]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.349585434404446e-05</v>
+        <v>0.001253372505753525</v>
       </c>
       <c r="O8" t="n">
-        <v>4.349585434404446e-05</v>
+        <v>0.001253372505753525</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.07547369738353815</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.6289474781961548, 0.4780000834290785]</t>
+          <t>[-0.4968685077749617, 0.8616580451287321]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.7848418093918641</v>
+        <v>0.5912960703101664</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7848418093918641</v>
+        <v>0.5912960703101664</v>
       </c>
       <c r="T8" t="n">
-        <v>59.53637664007435</v>
+        <v>60.83966978219445</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.92409537366106, 72.14865790648764]</t>
+          <t>[45.84281717568281, 75.83652238870609]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.468469872951573e-12</v>
+        <v>1.946856009737985e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>2.468469872951573e-12</v>
+        <v>1.946856009737985e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2791591591591605</v>
+        <v>23.01201201201227</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.768008008008026</v>
+        <v>20.44984984985008</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.326326326326347</v>
+        <v>25.57417417417446</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.24000000000019</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003535898745916644</v>
+        <v>0.001527498002526939</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003535898745916644</v>
+        <v>0.001527498002526939</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>40.60657412629224</v>
+        <v>40.90706249127501</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[15.671256922043526, 65.54189133054096]</t>
+          <t>[14.691421744657546, 67.12270323789248]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.002008925223114133</v>
+        <v>0.002958846799122838</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002008925223114133</v>
+        <v>0.002958846799122838</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9119738433844242</v>
+        <v>0.3207632138800394</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 1.515763422452733]</t>
+          <t>[-0.4339737599553457, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.003911182276001623</v>
+        <v>0.3965363059738554</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003911182276001623</v>
+        <v>0.3965363059738554</v>
       </c>
       <c r="T9" t="n">
-        <v>59.35152305056972</v>
+        <v>57.96824028242474</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.16484614778689, 72.53819995335256]</t>
+          <t>[42.869893892860176, 73.0665866719893]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.025224349859855e-11</v>
+        <v>8.460754319372654e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.025224349859855e-11</v>
+        <v>8.460754319372654e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>19.86682682682699</v>
+        <v>22.49009009009034</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.6335535535537</v>
+        <v>19.64324324324346</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.10010010010028</v>
+        <v>25.33693693693722</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.24000000000019</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01264125583298981</v>
+        <v>0.0003808817154613564</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01264125583298981</v>
+        <v>0.0003808817154613564</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>33.02915665189528</v>
+        <v>41.97478785762807</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[6.260122291783915, 59.79819101200664]</t>
+          <t>[17.25926021951777, 66.69031549573836]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01673515201693543</v>
+        <v>0.001339228719998253</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01673515201693543</v>
+        <v>0.001339228719998253</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.3333421634439624</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, 1.3459476033397708]</t>
+          <t>[-0.3207632138800385, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.61499904812425</v>
+        <v>0.3101805318316155</v>
       </c>
       <c r="S10" t="n">
-        <v>0.61499904812425</v>
+        <v>0.3101805318316155</v>
       </c>
       <c r="T10" t="n">
-        <v>56.77456557054591</v>
+        <v>63.41598053089972</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.44105945152499, 72.10807168956683]</t>
+          <t>[49.600403166494836, 77.2315578953046]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.147245936612308e-09</v>
+        <v>5.730305119300283e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.147245936612308e-09</v>
+        <v>5.730305119300283e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>22.23967967967987</v>
+        <v>22.44264264264289</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.26166166166182</v>
+        <v>19.9753753753756</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.21769769769792</v>
+        <v>24.90990990991019</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_4_sine_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_01/cosinor_per_day_fixed_period_4_sine_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003982719897474007</v>
+        <v>0.0001695131739092304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003982719897474007</v>
+        <v>0.0001695131739092304</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>42.98414391871968</v>
+        <v>43.75950313556575</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[17.378484808620854, 68.58980302881851]</t>
+          <t>[19.89035135620186, 67.62865491492964]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001502037087650843</v>
+        <v>0.0005984007416737214</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001502037087650843</v>
+        <v>0.0005984007416737214</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86797401024258</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1761317842268104, 2.5598162362583503]</t>
+          <t>[1.1132370364071944, 2.39628989192735]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.112949634813788e-06</v>
+        <v>1.66102381937705e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.112949634813788e-06</v>
+        <v>1.66102381937705e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>61.13419945698831</v>
+        <v>59.99700948861994</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.67680783070293, 75.59159108327368]</t>
+          <t>[46.12778190295456, 73.86623707428532]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.174816213899703e-11</v>
+        <v>3.238076473621732e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>6.174816213899703e-11</v>
+        <v>3.238076473621732e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.57459459459492</v>
+        <v>18.09009009009044</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.82074074074102</v>
+        <v>15.52732732732763</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.32844844844882</v>
+        <v>20.65285285285325</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000156419883225567</v>
+        <v>2.649447513602965e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000156419883225567</v>
+        <v>2.649447513602965e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>37.57249527459734</v>
+        <v>47.34149178501586</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[16.824218244908586, 58.3207723042861]</t>
+          <t>[27.733507213316003, 66.94947635671572]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0006854150987423147</v>
+        <v>1.450296336691359e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006854150987423147</v>
+        <v>1.450296336691359e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.276763380738194</v>
+        <v>1.100658086843271</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.8931319093704255]</t>
+          <t>[0.672973801669885, 1.5283423720166578]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001359863332710542</v>
+        <v>4.984049438272464e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001359863332710542</v>
+        <v>4.984049438272464e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>50.62503847591687</v>
+        <v>49.6192659694423</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[38.92788254658856, 62.322194405245185]</t>
+          <t>[39.30967556823007, 59.92885637065452]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.19406723292559e-11</v>
+        <v>1.365352275684018e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.19406723292559e-11</v>
+        <v>1.365352275684018e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>19.92788788788826</v>
+        <v>20.7031031031035</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.47445445445478</v>
+        <v>18.99459459459495</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.38132132132175</v>
+        <v>22.41161161161205</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01812264687271825</v>
+        <v>0.001036628241243509</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01812264687271825</v>
+        <v>0.001036628241243509</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>26.54453315541483</v>
+        <v>37.65766597180921</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[2.7471324515652285, 50.34193385926444]</t>
+          <t>[15.265306654357786, 60.05002528926063]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02961774843110376</v>
+        <v>0.001475783340621595</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02961774843110376</v>
+        <v>0.001475783340621595</v>
       </c>
       <c r="P4" t="n">
-        <v>1.188710733790733</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.03144737390980801, 2.408868841491273]</t>
+          <t>[0.8993948938205012, 2.4843425388748113]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.05594192536274689</v>
+        <v>9.0588118531576e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05594192536274689</v>
+        <v>9.0588118531576e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>49.05709082126936</v>
+        <v>62.54311259475412</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.17446938537806, 61.93971225716065]</t>
+          <t>[48.840757917038395, 76.24546727246985]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.047149922328572e-09</v>
+        <v>6.77524703007748e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.047149922328572e-09</v>
+        <v>6.77524703007748e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>20.27837837837876</v>
+        <v>18.3413413413417</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.42158158158187</v>
+        <v>15.17557557557587</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.13517517517565</v>
+        <v>21.50710710710752</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.825228864888345e-08</v>
+        <v>3.843706550588077e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>7.825228864888345e-08</v>
+        <v>3.843706550588077e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>62.49062592073967</v>
+        <v>46.08096107820548</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[37.68070178278542, 87.30055005869393]</t>
+          <t>[22.69332481315864, 69.46859734325231]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>7.209520287654314e-06</v>
+        <v>0.0002573219234531798</v>
       </c>
       <c r="O5" t="n">
-        <v>7.209520287654314e-06</v>
+        <v>0.0002573219234531798</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8616580451287312</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 1.251605481610346]</t>
+          <t>[0.6226580034141929, 1.7296055650394262]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.58604139038188e-05</v>
+        <v>9.655104085326549e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>5.58604139038188e-05</v>
+        <v>9.655104085326549e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>66.93656880092415</v>
+        <v>53.94110447870282</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.16942173639957, 79.70371586544873]</t>
+          <t>[40.8721210067895, 67.01008795061614]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.192646643896296e-14</v>
+        <v>1.212761002733487e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>9.192646643896296e-14</v>
+        <v>1.212761002733487e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>21.58020020020061</v>
+        <v>20.401601601602</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.02802802802841</v>
+        <v>18.19059059059094</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.1323723723728</v>
+        <v>22.61261261261305</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.621327084190611e-05</v>
+        <v>0.0004380188073338509</v>
       </c>
       <c r="I6" t="n">
-        <v>8.621327084190611e-05</v>
+        <v>0.0004380188073338509</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.39132260500694</v>
+        <v>40.88091082354224</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[22.10377857891021, 80.67886663110367]</t>
+          <t>[14.885992487221372, 66.8758291598631]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0009597114593944411</v>
+        <v>0.002761464792926605</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0009597114593944411</v>
+        <v>0.002761464792926605</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6855527512338089</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.16981581911296306, 1.2012896833546547]</t>
+          <t>[-0.04402632347373192, 1.2138686329185795]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01032121786584717</v>
+        <v>0.06755665727433535</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01032121786584717</v>
+        <v>0.06755665727433535</v>
       </c>
       <c r="T6" t="n">
-        <v>64.44339563248705</v>
+        <v>61.54692607449574</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.42599112998333, 79.46080013499078]</t>
+          <t>[48.23726327724884, 74.85658887174264]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.073075210442312e-11</v>
+        <v>4.594991054318598e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>4.073075210442312e-11</v>
+        <v>4.594991054318598e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>22.2811811811816</v>
+        <v>22.7633633633638</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.22830830830869</v>
+        <v>20.25085085085124</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.33405405405451</v>
+        <v>25.27587587587637</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.01000000000047</v>
+        <v>25.10000000000048</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002285987757412178</v>
+        <v>0.000119026506897657</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002285987757412178</v>
+        <v>0.000119026506897657</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.58880416474915</v>
+        <v>46.43887987649583</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[16.692169772084156, 64.48543855741414]</t>
+          <t>[22.109638502685783, 70.76812125030588]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001337666659656733</v>
+        <v>0.0003770907493305664</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001337666659656733</v>
+        <v>0.0003770907493305664</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4717106086471166</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.15723686954903737, 1.1006580868432705]</t>
+          <t>[-0.32076321388003937, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1378868762615149</v>
+        <v>0.3501546236061377</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1378868762615149</v>
+        <v>0.3501546236061377</v>
       </c>
       <c r="T7" t="n">
-        <v>58.65764498973205</v>
+        <v>61.40842297679604</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.05966226721188, 71.25562771225222]</t>
+          <t>[47.70882858050852, 75.10801737308356]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.738565013122752e-12</v>
+        <v>1.156075235542176e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.738565013122752e-12</v>
+        <v>1.156075235542176e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>23.13237237237281</v>
+        <v>23.96936936936983</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.62886886886926</v>
+        <v>21.55735735735777</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.63587587587635</v>
+        <v>26.38138138138189</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.70000000000027</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004369418129007707</v>
+        <v>9.952532937873571e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004369418129007707</v>
+        <v>9.952532937873571e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>44.98597484602176</v>
+        <v>49.48299314805687</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[18.67221184951947, 71.29973784252405]</t>
+          <t>[24.345695150403998, 74.62029114570974]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.001253372505753525</v>
+        <v>0.0002602382254037749</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001253372505753525</v>
+        <v>0.0002602382254037749</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1823947686768852</v>
+        <v>0.1698158191129613</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.4968685077749617, 0.8616580451287321]</t>
+          <t>[-0.47171060864711656, 0.8113422468730391]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5912960703101664</v>
+        <v>0.5965566270943379</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5912960703101664</v>
+        <v>0.5965566270943379</v>
       </c>
       <c r="T8" t="n">
-        <v>60.83966978219445</v>
+        <v>63.65290398594479</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.84281717568281, 75.83652238870609]</t>
+          <t>[48.59195753989005, 78.71385043199953]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.946856009737985e-10</v>
+        <v>6.266809293720144e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.946856009737985e-10</v>
+        <v>6.266809293720144e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>23.01201201201227</v>
+        <v>22.14486486486498</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.44984984985008</v>
+        <v>19.82102102102112</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.57417417417446</v>
+        <v>24.46870870870884</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.70000000000027</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001527498002526939</v>
+        <v>2.136857535361969e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001527498002526939</v>
+        <v>2.136857535361969e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>40.90706249127501</v>
+        <v>57.31779290279143</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[14.691421744657546, 67.12270323789248]</t>
+          <t>[39.14303722751099, 75.49254857807188]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.002958846799122838</v>
+        <v>9.363574515752759e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002958846799122838</v>
+        <v>9.363574515752759e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3207632138800394</v>
+        <v>0.1698158191129613</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.4339737599553457, 1.0755001877154244]</t>
+          <t>[-0.22013161736865516, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3965363059738554</v>
+        <v>0.3850858528921481</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3965363059738554</v>
+        <v>0.3850858528921481</v>
       </c>
       <c r="T9" t="n">
-        <v>57.96824028242474</v>
+        <v>61.7179034210217</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.869893892860176, 73.0665866719893]</t>
+          <t>[50.340881619611416, 73.09492522243198]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.460754319372654e-10</v>
+        <v>3.019806626980426e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>8.460754319372654e-10</v>
+        <v>3.019806626980426e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>22.49009009009034</v>
+        <v>22.14486486486498</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.64324324324346</v>
+        <v>20.73233233233244</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.33693693693722</v>
+        <v>23.55739739739752</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.70000000000027</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0003808817154613564</v>
+        <v>7.823058589262466e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003808817154613564</v>
+        <v>7.823058589262466e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.97478785762807</v>
+        <v>48.77607160151636</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[17.25926021951777, 66.69031549573836]</t>
+          <t>[24.905396819826464, 72.64674638320626]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001339228719998253</v>
+        <v>0.0001625275732688447</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001339228719998253</v>
+        <v>0.0001625275732688447</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3333421634439624</v>
+        <v>0.8993948938205003</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.3207632138800385, 0.9874475407679633]</t>
+          <t>[0.42139481039142357, 1.377394977249577]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3101805318316155</v>
+        <v>0.0004457496862577681</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3101805318316155</v>
+        <v>0.0004457496862577681</v>
       </c>
       <c r="T10" t="n">
-        <v>63.41598053089972</v>
+        <v>59.72126730276343</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.600403166494836, 77.2315578953046]</t>
+          <t>[47.34687978148075, 72.09565482404611]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.730305119300283e-12</v>
+        <v>1.254552017826427e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>5.730305119300283e-12</v>
+        <v>1.254552017826427e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>22.44264264264289</v>
+        <v>19.50206206206217</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.9753753753756</v>
+        <v>17.77057057057067</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.90990990991019</v>
+        <v>21.23355355355366</v>
       </c>
     </row>
   </sheetData>
